--- a/diurenmw/Excels/ArmorObj_防具类型表.xlsx
+++ b/diurenmw/Excels/ArmorObj_防具类型表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,55 +29,55 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effect1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effect2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effect3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effect4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>vit</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>effect1</t>
+  </si>
+  <si>
+    <t>effect2</t>
+  </si>
+  <si>
+    <t>effect3</t>
+  </si>
+  <si>
+    <t>effect4</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <r>
@@ -78,7 +85,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">防具部位：
@@ -89,17 +95,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">头盔
@@ -110,17 +114,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">上衣
@@ -131,17 +133,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">下装
@@ -152,29 +152,26 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">鞋子</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">防具种类：
@@ -185,17 +182,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">重甲
@@ -206,17 +201,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">板甲
@@ -227,29 +220,26 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">布甲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布甲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">品级：
@@ -260,17 +250,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">普通
@@ -281,17 +269,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">高级
@@ -302,17 +288,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">稀有
@@ -323,17 +307,15 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">传说
@@ -344,405 +326,1416 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">史诗</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">防御力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">体力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">力量范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve">智力范围</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">效果</t>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>史诗</t>
+    </r>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>力量范围</t>
+  </si>
+  <si>
+    <t>智力范围</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">描述</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">效果</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">描述</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">效果</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">描述</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">效果</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">描述</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">普通布甲头盔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12|20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50|100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锁子甲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20|50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">银鳞胸甲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600|800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100|120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普通布甲下装</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13|22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77|98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普通重甲鞋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5|8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16|21</t>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <t>普通布甲头盔</t>
+  </si>
+  <si>
+    <t>12|20</t>
+  </si>
+  <si>
+    <t>50|100</t>
+  </si>
+  <si>
+    <t>锁子甲</t>
+  </si>
+  <si>
+    <t>100|150</t>
+  </si>
+  <si>
+    <t>20|50</t>
+  </si>
+  <si>
+    <t>银鳞胸甲</t>
+  </si>
+  <si>
+    <t>600|800</t>
+  </si>
+  <si>
+    <t>100|120</t>
+  </si>
+  <si>
+    <t>普通布甲下装</t>
+  </si>
+  <si>
+    <t>13|22</t>
+  </si>
+  <si>
+    <t>77|98</t>
+  </si>
+  <si>
+    <t>普通重甲鞋子</t>
+  </si>
+  <si>
+    <t>5|8</t>
+  </si>
+  <si>
+    <t>16|21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.46666666666667" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="37.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="4" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="11.68"/>
+    <col min="1" max="1" width="11.6814814814815" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.0962962962963" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.0518518518519" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6814814814815" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.6814814814815" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.8" style="3" customWidth="1"/>
+    <col min="11" max="13" width="11.6814814814815" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="18.75" customHeight="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -783,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="18.75" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +1817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="82.5" customHeight="1" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -865,7 +1858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="18.75" customHeight="1" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="D4" s="11"/>
@@ -873,26 +1866,26 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="12">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="12">
         <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
@@ -902,36 +1895,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
+    <row r="6" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A6"/>
       <c r="B6" s="6"/>
-      <c r="D6" s="0"/>
+      <c r="D6"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A7">
         <v>20001</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="12">
         <v>22</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="12">
         <v>100</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -941,26 +1934,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A8">
         <v>20002</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="13">
         <v>5</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="12">
         <v>1600</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="12">
         <v>1000</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -982,36 +1975,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
+    <row r="9" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A9"/>
       <c r="B9" s="6"/>
-      <c r="D9" s="0"/>
+      <c r="D9"/>
       <c r="E9" s="5"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A10">
         <v>30001</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="12">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="12">
         <v>10</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1021,7 +2014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="18.75" customHeight="1" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="D11" s="5"/>
@@ -1031,26 +2024,26 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A12">
         <v>40001</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" s="14" t="s">
@@ -1060,7 +2053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="18.75" customHeight="1" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="D13" s="5"/>
@@ -1069,7 +2062,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="18.75" customHeight="1" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="D14" s="5"/>
@@ -1078,7 +2071,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="18.75" customHeight="1" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="D15" s="5"/>
@@ -1087,7 +2080,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="18.75" customHeight="1" spans="1:9">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="D16" s="5"/>
@@ -1096,7 +2089,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="18.75" customHeight="1" spans="1:9">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="D17" s="5"/>
@@ -1105,7 +2098,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="18.75" customHeight="1" spans="1:9">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="D18" s="5"/>
@@ -1114,7 +2107,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="18.75" customHeight="1" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="D19" s="5"/>
@@ -1123,7 +2116,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="18.75" customHeight="1" spans="1:9">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="D20" s="5"/>
@@ -1132,7 +2125,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="18.75" customHeight="1" spans="1:9">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="D21" s="5"/>
@@ -1141,7 +2134,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="18.75" customHeight="1" spans="1:9">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="D22" s="5"/>
@@ -1151,12 +2144,8 @@
       <c r="I22" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>